--- a/example.xlsx
+++ b/example.xlsx
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
       <t>ケンショウ</t>
@@ -103,6 +96,13 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
                     <c:v>6月21日</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7月10日</c:v>
+                    <c:v>7月18日</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>-</c:v>
@@ -492,7 +492,7 @@
                     <c:v>定義</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>設計</c:v>
+                    <c:v>詳細</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>実装</c:v>
@@ -549,7 +549,7 @@
                   <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510000</c:v>
+                  <c:v>520000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>360000</c:v>
@@ -1332,7 +1332,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>こんにちは！？</a:t>
+            <a:t>こんにちは</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11">
         <v>44346</v>
@@ -1708,7 +1708,7 @@
         <v>44358</v>
       </c>
       <c r="E6" s="15">
-        <v>510000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
@@ -1716,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="11">
         <v>44368</v>
@@ -1730,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="11">
-        <v>44387</v>
+        <v>44395</v>
       </c>
       <c r="E8" s="15">
         <v>60000</v>
@@ -1744,13 +1744,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1758,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
